--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1687.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1687.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8144232706795548</v>
+        <v>0.677041232585907</v>
       </c>
       <c r="B1">
-        <v>4.046868197873889</v>
+        <v>0.9734271764755249</v>
       </c>
       <c r="C1">
-        <v>2.347780850957073</v>
+        <v>4.142537117004395</v>
       </c>
       <c r="D1">
-        <v>1.887722121413616</v>
+        <v>2.173025846481323</v>
       </c>
       <c r="E1">
-        <v>1.746881519717324</v>
+        <v>1.657128810882568</v>
       </c>
     </row>
   </sheetData>
